--- a/Outputs/testexcel.xlsx
+++ b/Outputs/testexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pritish Sanyal\Documents\UiPath\QueueReportGeneration\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EFDA6C-D9E6-4AD1-9EC4-0CF8C73E27A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652A9594-D41B-4A1C-95B8-857B2BB06EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="1044" windowWidth="17280" windowHeight="9072" xr2:uid="{8DEA43CA-2B3D-4FD1-8952-A059BFCC6ADD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8DEA43CA-2B3D-4FD1-8952-A059BFCC6ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Queue Report" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>ItemKey</t>
   </si>
@@ -61,55 +61,10 @@
     <t>ExceptionDetails</t>
   </si>
   <si>
-    <t>IK</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>EType</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
     <t>ED</t>
   </si>
   <si>
-    <t>IK11</t>
-  </si>
-  <si>
-    <t>RF111</t>
-  </si>
-  <si>
-    <t>Status111</t>
-  </si>
-  <si>
-    <t>ST111</t>
-  </si>
-  <si>
-    <t>E1T11</t>
-  </si>
-  <si>
-    <t>L11U</t>
-  </si>
-  <si>
-    <t>ET111ype</t>
-  </si>
-  <si>
-    <t>E111R</t>
-  </si>
-  <si>
-    <t>E111D</t>
+    <t>Successful</t>
   </si>
 </sst>
 </file>
@@ -145,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99DABC9-6222-4FE8-8166-6D0FEB6F0389}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,61 +453,54 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2" s="1">
+        <v>43870.092361111114</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+      <c r="C2" s="1">
+        <v>43869.863194444442</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43869.863194444442</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
+      <c r="A3" s="1">
+        <v>43870.092361111114</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43869.863194444442</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43869.863194444442</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43870.092361111114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43869.863194444442</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43869.863194444442</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
